--- a/Dataset 1/Sample_20_cells.xlsx
+++ b/Dataset 1/Sample_20_cells.xlsx
@@ -621,7 +621,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAACCTGAGATCGATA-1</t>
+          <t>Dataset 1/AAACCTGAGATCGATA-1</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -688,7 +688,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AAACCTGAGGTGCAAC-1</t>
+          <t>Dataset 1/AAACCTGAGGTGCAAC-1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -755,7 +755,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AAACCTGAGTCGTACT-1</t>
+          <t>Dataset 1/AAACCTGAGTCGTACT-1</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -822,7 +822,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AAACCTGCAGGGTATG-1</t>
+          <t>Dataset 1/AAACCTGCAGGGTATG-1</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -889,7 +889,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AAACCTGTCACCTCGT-1</t>
+          <t>Dataset 1/AAACCTGTCACCTCGT-1</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -956,7 +956,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AAACCTGTCATTTGGG-1</t>
+          <t>Dataset 1/AAACCTGTCATTTGGG-1</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1023,7 +1023,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AAACCTGTCGTGGTCG-1</t>
+          <t>Dataset 1/AAACCTGTCGTGGTCG-1</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1090,7 +1090,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AAACGGGAGAGTAAGG-1</t>
+          <t>Dataset 1/AAACGGGAGAGTAAGG-1</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1157,7 +1157,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AAACGGGCATCAGTCA-1</t>
+          <t>Dataset 1/AAACGGGCATCAGTCA-1</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1224,7 +1224,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AAACGGGCATTCTCAT-1</t>
+          <t>Dataset 1/AAACGGGCATTCTCAT-1</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1291,7 +1291,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AAACGGGTCCATGAGT-1</t>
+          <t>Dataset 1/AAACGGGTCCATGAGT-1</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1358,7 +1358,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AAACGGGTCGGCTACG-1</t>
+          <t>Dataset 1/AAACGGGTCGGCTACG-1</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1425,7 +1425,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AAACGGGTCTTGTACT-1</t>
+          <t>Dataset 1/AAACGGGTCTTGTACT-1</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1492,7 +1492,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AAAGATGAGCCAACAG-1</t>
+          <t>Dataset 1/AAAGATGAGCCAACAG-1</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1559,7 +1559,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AAAGATGCATCCGTGG-1</t>
+          <t>Dataset 1/AAAGATGCATCCGTGG-1</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1626,7 +1626,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AAAGATGGTACCGAGA-1</t>
+          <t>Dataset 1/AAAGATGGTACCGAGA-1</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1693,7 +1693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AAAGATGGTTCTGGTA-1</t>
+          <t>Dataset 1/AAAGATGGTTCTGGTA-1</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1760,7 +1760,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AAAGATGTCAATACCG-1</t>
+          <t>Dataset 1/AAAGATGTCAATACCG-1</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1827,7 +1827,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AAAGATGTCAGTTCGA-1</t>
+          <t>Dataset 1/AAAGATGTCAGTTCGA-1</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1894,7 +1894,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AAAGCAAAGAGACGAA-1</t>
+          <t>Dataset 1/AAAGCAAAGAGACGAA-1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2037,7 +2037,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAACCTGAGATCGATA-1</t>
+          <t>Dataset 1/AAACCTGAGATCGATA-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2090,7 +2090,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AAACCTGAGGTGCAAC-1</t>
+          <t>Dataset 1/AAACCTGAGGTGCAAC-1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2143,7 +2143,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AAACCTGAGTCGTACT-1</t>
+          <t>Dataset 1/AAACCTGAGTCGTACT-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AAACCTGCAGGGTATG-1</t>
+          <t>Dataset 1/AAACCTGCAGGGTATG-1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -2241,7 +2241,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AAACCTGTCACCTCGT-1</t>
+          <t>Dataset 1/AAACCTGTCACCTCGT-1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2294,7 +2294,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AAACCTGTCATTTGGG-1</t>
+          <t>Dataset 1/AAACCTGTCATTTGGG-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2347,7 +2347,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AAACCTGTCGTGGTCG-1</t>
+          <t>Dataset 1/AAACCTGTCGTGGTCG-1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AAACGGGAGAGTAAGG-1</t>
+          <t>Dataset 1/AAACGGGAGAGTAAGG-1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AAACGGGCATCAGTCA-1</t>
+          <t>Dataset 1/AAACGGGCATCAGTCA-1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2514,7 +2514,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AAACGGGCATTCTCAT-1</t>
+          <t>Dataset 1/AAACGGGCATTCTCAT-1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2571,7 +2571,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AAACGGGTCCATGAGT-1</t>
+          <t>Dataset 1/AAACGGGTCCATGAGT-1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2624,7 +2624,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AAACGGGTCGGCTACG-1</t>
+          <t>Dataset 1/AAACGGGTCGGCTACG-1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -2661,7 +2661,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AAACGGGTCTTGTACT-1</t>
+          <t>Dataset 1/AAACGGGTCTTGTACT-1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2714,7 +2714,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AAAGATGAGCCAACAG-1</t>
+          <t>Dataset 1/AAAGATGAGCCAACAG-1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -2755,7 +2755,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AAAGATGCATCCGTGG-1</t>
+          <t>Dataset 1/AAAGATGCATCCGTGG-1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2808,7 +2808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AAAGATGGTACCGAGA-1</t>
+          <t>Dataset 1/AAAGATGGTACCGAGA-1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2861,7 +2861,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AAAGATGGTTCTGGTA-1</t>
+          <t>Dataset 1/AAAGATGGTTCTGGTA-1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2918,7 +2918,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AAAGATGTCAATACCG-1</t>
+          <t>Dataset 1/AAAGATGTCAATACCG-1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -2955,7 +2955,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AAAGATGTCAGTTCGA-1</t>
+          <t>Dataset 1/AAAGATGTCAGTTCGA-1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3008,7 +3008,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AAAGCAAAGAGACGAA-1</t>
+          <t>Dataset 1/AAAGCAAAGAGACGAA-1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3277,7 +3277,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAACCTGAGATCGATA-1</t>
+          <t>Dataset 1/AAACCTGAGATCGATA-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3458,7 +3458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AAACCTGAGGTGCAAC-1</t>
+          <t>Dataset 1/AAACCTGAGGTGCAAC-1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3639,7 +3639,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AAACCTGAGTCGTACT-1</t>
+          <t>Dataset 1/AAACCTGAGTCGTACT-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3820,7 +3820,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AAACCTGCAGGGTATG-1</t>
+          <t>Dataset 1/AAACCTGCAGGGTATG-1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4001,7 +4001,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AAACCTGTCACCTCGT-1</t>
+          <t>Dataset 1/AAACCTGTCACCTCGT-1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4182,7 +4182,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AAACCTGTCATTTGGG-1</t>
+          <t>Dataset 1/AAACCTGTCATTTGGG-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4363,7 +4363,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AAACCTGTCGTGGTCG-1</t>
+          <t>Dataset 1/AAACCTGTCGTGGTCG-1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4544,7 +4544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AAACGGGAGAGTAAGG-1</t>
+          <t>Dataset 1/AAACGGGAGAGTAAGG-1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4725,7 +4725,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AAACGGGCATCAGTCA-1</t>
+          <t>Dataset 1/AAACGGGCATCAGTCA-1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4906,7 +4906,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AAACGGGCATTCTCAT-1</t>
+          <t>Dataset 1/AAACGGGCATTCTCAT-1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5087,7 +5087,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AAACGGGTCCATGAGT-1</t>
+          <t>Dataset 1/AAACGGGTCCATGAGT-1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AAACGGGTCGGCTACG-1</t>
+          <t>Dataset 1/AAACGGGTCGGCTACG-1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5449,7 +5449,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AAACGGGTCTTGTACT-1</t>
+          <t>Dataset 1/AAACGGGTCTTGTACT-1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5630,7 +5630,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AAAGATGAGCCAACAG-1</t>
+          <t>Dataset 1/AAAGATGAGCCAACAG-1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5811,7 +5811,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AAAGATGCATCCGTGG-1</t>
+          <t>Dataset 1/AAAGATGCATCCGTGG-1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5992,7 +5992,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AAAGATGGTACCGAGA-1</t>
+          <t>Dataset 1/AAAGATGGTACCGAGA-1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -6173,7 +6173,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AAAGATGGTTCTGGTA-1</t>
+          <t>Dataset 1/AAAGATGGTTCTGGTA-1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -6354,7 +6354,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AAAGATGTCAATACCG-1</t>
+          <t>Dataset 1/AAAGATGTCAATACCG-1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -6535,7 +6535,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AAAGATGTCAGTTCGA-1</t>
+          <t>Dataset 1/AAAGATGTCAGTTCGA-1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -6716,7 +6716,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AAAGCAAAGAGACGAA-1</t>
+          <t>Dataset 1/AAAGCAAAGAGACGAA-1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
